--- a/Assets/ToDo.xlsx
+++ b/Assets/ToDo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\Main\Studia\Silniki\LightPlatformer\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A43744-6DC2-4DBE-BE04-E4BC3A0DD2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F7C656-B680-4B72-A4B9-F40B94F92B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,21 +213,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -252,13 +238,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
@@ -266,105 +245,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFCCECFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -654,7 +535,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +584,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -803,7 +684,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,7 +704,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -920,6 +801,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{363C663C-B317-4AA5-AB1A-B193BEFA84BC}">
+            <xm:f>NOT(ISERROR(SEARCH($V$54,E2)))</xm:f>
+            <xm:f>$V$54</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCECFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{46A843AD-1DE0-4DC9-9117-0B5931864B35}">
+            <xm:f>NOT(ISERROR(SEARCH($V$53,E2)))</xm:f>
+            <xm:f>$V$53</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFCCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E2:E10</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{C91FAC86-2195-4701-822D-554EC4B80ED0}">
             <xm:f>NOT(ISERROR(SEARCH($V$51,F2)))</xm:f>
@@ -956,31 +862,6 @@
           </x14:cfRule>
           <xm:sqref>F2:F10</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{46A843AD-1DE0-4DC9-9117-0B5931864B35}">
-            <xm:f>NOT(ISERROR(SEARCH($V$53,E2)))</xm:f>
-            <xm:f>$V$53</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFCCFF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{363C663C-B317-4AA5-AB1A-B193BEFA84BC}">
-            <xm:f>NOT(ISERROR(SEARCH($V$54,E2)))</xm:f>
-            <xm:f>$V$54</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFCCECFF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E2:E10</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Assets/ToDo.xlsx
+++ b/Assets/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\Main\Studia\Silniki\LightPlatformer\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F7C656-B680-4B72-A4B9-F40B94F92B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A58ED-C0B5-468F-A52D-EDFA49A7F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Status</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Add script for auto shadow cast 2d for tilemap (ask Dawid for script)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>wysłać maila jak usuwać przeciwników od najbliższego do najdalszego (sortowanie listy po odległości</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,9 +551,10 @@
     <col min="3" max="3" width="46.44140625" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -555,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -566,8 +573,11 @@
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -586,8 +596,11 @@
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -606,8 +619,9 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -626,8 +640,9 @@
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -646,8 +661,9 @@
       <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -666,8 +682,9 @@
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -686,8 +703,9 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -706,8 +724,9 @@
       <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -726,8 +745,9 @@
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -746,8 +766,9 @@
       <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -755,7 +776,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/Assets/ToDo.xlsx
+++ b/Assets/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\Main\Studia\Silniki\LightPlatformer\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A58ED-C0B5-468F-A52D-EDFA49A7F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B191BC-C2DA-4729-85CD-1FE0027E97BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Status</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>wysłać maila jak usuwać przeciwników od najbliższego do najdalszego (sortowanie listy po odległości</t>
+  </si>
+  <si>
+    <t>enemy does not stop from moving</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -594,13 +597,11 @@
         <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -617,9 +618,11 @@
         <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -638,7 +641,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -659,9 +662,11 @@
         <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">

--- a/Assets/ToDo.xlsx
+++ b/Assets/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\Main\Studia\Silniki\LightPlatformer\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B191BC-C2DA-4729-85CD-1FE0027E97BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E64032-C342-4D8A-9BB7-F4281531D7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3"/>
     </row>

--- a/Assets/ToDo.xlsx
+++ b/Assets/ToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\Main\Studia\Silniki\LightPlatformer\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E64032-C342-4D8A-9BB7-F4281531D7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B93C3A9-862B-4DEB-9B8A-5273B6EE7247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Status</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>enemy does not stop from moving</t>
+  </si>
+  <si>
+    <t>Enemy range</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +709,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -727,7 +730,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -748,7 +751,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -769,17 +772,21 @@
         <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -816,7 +823,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{A2A5A02B-0B40-4AEA-9579-28B92A43E34D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{A2A5A02B-0B40-4AEA-9579-28B92A43E34D}">
       <formula1>$V$49:$V$51</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{2B536AEF-DFF0-4D91-BD00-79627E9F78B1}">
@@ -886,7 +893,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F10</xm:sqref>
+          <xm:sqref>F2:F11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
